--- a/chengww_pre_12.xlsx
+++ b/chengww_pre_12.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Cheng\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>000905.SH</t>
   </si>
@@ -52,6 +52,10 @@
   </si>
   <si>
     <t>000016.SH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF.CFE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -117,16 +121,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -156,463 +174,718 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>-1.7407454765167003</v>
+            <v>-12.1311770694651</v>
           </cell>
           <cell r="C2">
-            <v>7.9244402502042295</v>
+            <v>-2.4659913427441702</v>
+          </cell>
+          <cell r="L2">
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-1.06742527336285</v>
+            <v>1.3516524553986999</v>
           </cell>
           <cell r="C3">
-            <v>3.5247591367789703</v>
+            <v>5.9438368655405203</v>
+          </cell>
+          <cell r="L3">
+            <v>0</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>1.4148965094195698</v>
+            <v>3.3633275807107799</v>
           </cell>
           <cell r="C4">
-            <v>0.6728121625866601</v>
+            <v>2.6212432338778702</v>
+          </cell>
+          <cell r="L4">
+            <v>0</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>-0.24910448734891055</v>
+            <v>-8.5657417971106398</v>
           </cell>
           <cell r="C5">
-            <v>1.641584320552159</v>
+            <v>-6.6750529892095702</v>
+          </cell>
+          <cell r="L5">
+            <v>0</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>-0.80266998948875923</v>
+            <v>-10.390736619967999</v>
           </cell>
           <cell r="C6">
-            <v>2.0561669512727399</v>
+            <v>-7.5318996792065001</v>
+          </cell>
+          <cell r="L6">
+            <v>10.1383971676859</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>2.0240588970604403</v>
+            <v>-5.55524116236412</v>
           </cell>
           <cell r="C7">
-            <v>-3.1385602473123404</v>
+            <v>-10.717860306736901</v>
+          </cell>
+          <cell r="L7">
+            <v>7.6289398280802301</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8">
-            <v>-2.7139629913503605</v>
+            <v>9.2161052471292404</v>
           </cell>
           <cell r="C8">
-            <v>2.4421837470767986</v>
+            <v>14.372251985556399</v>
+          </cell>
+          <cell r="L8">
+            <v>-11.337727801473401</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>-4.3606596806746198</v>
+            <v>-3.16359298556445</v>
           </cell>
           <cell r="C9">
-            <v>8.3029726737473801</v>
+            <v>9.50003936885755</v>
+          </cell>
+          <cell r="L9">
+            <v>-1.35822246987532</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>-1.676786044922804</v>
+            <v>-0.56125374043547405</v>
           </cell>
           <cell r="C10">
-            <v>0.43843389812053002</v>
+            <v>1.55396620260786</v>
+          </cell>
+          <cell r="L10">
+            <v>-1.47746014293568</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>-0.69262402620039865</v>
+            <v>14.4461188567928</v>
           </cell>
           <cell r="C11">
-            <v>-6.6658729444337084</v>
+            <v>8.4728699385594908</v>
+          </cell>
+          <cell r="L11">
+            <v>-15.798740434753199</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12">
-            <v>-2.3831795050538798</v>
+            <v>-9.5725056052147401</v>
           </cell>
           <cell r="C12">
-            <v>8.2848277842699396</v>
+            <v>1.0955016841090801</v>
+          </cell>
+          <cell r="L12">
+            <v>7.8011695906432799</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>0.15056915217195299</v>
+            <v>-0.12753227324130401</v>
           </cell>
           <cell r="C13">
-            <v>-3.129514687287593</v>
+            <v>-3.40761611270085</v>
+          </cell>
+          <cell r="L13">
+            <v>-0.120512495242934</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>0.98378057585068712</v>
+            <v>-0.67058905635072297</v>
+          </cell>
+          <cell r="L14">
+            <v>2.4453595185302399</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15">
-            <v>-2.3599598411527603</v>
+            <v>2.9399126116411298</v>
+          </cell>
+          <cell r="L15">
+            <v>-5.69517501136436</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16">
-            <v>3.5637643142263791</v>
+            <v>3.0615045930729701</v>
+          </cell>
+          <cell r="L16">
+            <v>0.34406488080608899</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>2.3938715864336291</v>
+            <v>1.4456162645387201</v>
+          </cell>
+          <cell r="L17">
+            <v>1.5659679408138201</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>1.1004844022202498</v>
+            <v>-4.8871004900488204</v>
+          </cell>
+          <cell r="L18">
+            <v>6.1756231992985002</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19">
-            <v>-2.4680303248198703</v>
+            <v>-1.0509986252613801</v>
+          </cell>
+          <cell r="L19">
+            <v>-1.3017356475300399</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20">
-            <v>-1.7170021047667796</v>
+            <v>-4.0825702599685396</v>
+          </cell>
+          <cell r="L20">
+            <v>2.08896210873147</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21">
-            <v>0.72195064052437985</v>
+            <v>-3.4940543849140502</v>
+          </cell>
+          <cell r="L21">
+            <v>4.19975770628617</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22">
-            <v>0.79594655585649932</v>
+            <v>-8.5277585758433503</v>
+          </cell>
+          <cell r="L22">
+            <v>9.6599690880989204</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23">
-            <v>1.9703451577300504</v>
+            <v>6.38493271285137</v>
+          </cell>
+          <cell r="L23">
+            <v>-4.7437592347772002</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24">
-            <v>-0.76760112607072983</v>
+            <v>-7.2153638484618998</v>
+          </cell>
+          <cell r="L24">
+            <v>6.1548741554681197</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25">
-            <v>4.2566303714417</v>
+            <v>-2.7144822907620401</v>
+          </cell>
+          <cell r="L25">
+            <v>6.7642405063291102</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26">
-            <v>2.8044734411680299</v>
+            <v>7.8569472426346803</v>
+          </cell>
+          <cell r="L26">
+            <v>-5.0487908358082301</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27">
-            <v>-2.4197164081256197</v>
+            <v>4.4741584265103302</v>
+          </cell>
+          <cell r="L27">
+            <v>-7.0597738287560601</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28">
-            <v>0.37837511509701027</v>
+            <v>-6.4262668500506699</v>
+          </cell>
+          <cell r="L28">
+            <v>7.4392636185302603</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29">
-            <v>-0.12188483576103071</v>
+            <v>6.8542881147351196</v>
+          </cell>
+          <cell r="L29">
+            <v>-7.5399413107270998</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30">
-            <v>-1.2089249764356991</v>
+            <v>-0.98483327133200804</v>
+          </cell>
+          <cell r="L30">
+            <v>0.113696657318275</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31">
-            <v>1.1700154656044193</v>
+            <v>-5.3051851580938303</v>
+          </cell>
+          <cell r="L31">
+            <v>6.3211412960995599</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32">
-            <v>0.72363363319696017</v>
+            <v>-4.5042414340354098</v>
+          </cell>
+          <cell r="L32">
+            <v>4.2851356824625402</v>
           </cell>
         </row>
         <row r="33">
           <cell r="B33">
-            <v>0.54465269844749997</v>
+            <v>-4.9443435045974402</v>
+          </cell>
+          <cell r="L33">
+            <v>6.2288422477995899</v>
           </cell>
         </row>
         <row r="34">
           <cell r="B34">
-            <v>-1.1952621144900366E-2</v>
+            <v>3.9900103081551799</v>
+          </cell>
+          <cell r="L34">
+            <v>-4.4945848375451201</v>
           </cell>
         </row>
         <row r="35">
           <cell r="B35">
-            <v>5.5322116304610036E-2</v>
+            <v>-1.61429106337395</v>
+          </cell>
+          <cell r="L35">
+            <v>2.6083952323371999</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36">
-            <v>2.6313886389209</v>
+            <v>-2.4758483023870599</v>
+          </cell>
+          <cell r="L36">
+            <v>5.1791415395530196</v>
           </cell>
         </row>
         <row r="37">
           <cell r="B37">
-            <v>2.110221730128</v>
+            <v>20.023853842878601</v>
+          </cell>
+          <cell r="L37">
+            <v>-18.686868686868699</v>
           </cell>
         </row>
         <row r="38">
           <cell r="B38">
-            <v>0.80037266863266954</v>
+            <v>7.2979199862193598</v>
+          </cell>
+          <cell r="L38">
+            <v>-6.3750985027580898</v>
           </cell>
         </row>
         <row r="39">
           <cell r="B39">
-            <v>-1.3340150076693109</v>
+            <v>-1.8385031094914199</v>
+          </cell>
+          <cell r="L39">
+            <v>0.79265130750426305</v>
           </cell>
         </row>
         <row r="40">
           <cell r="B40">
-            <v>-1.6843121117316704</v>
+            <v>-8.3518092043058303</v>
+          </cell>
+          <cell r="L40">
+            <v>7.2655316606929503</v>
           </cell>
         </row>
         <row r="41">
           <cell r="B41">
-            <v>0.4003975989978199</v>
+            <v>-1.51444852034972</v>
+          </cell>
+          <cell r="L41">
+            <v>1.7714791851195699</v>
           </cell>
         </row>
         <row r="42">
           <cell r="B42">
-            <v>-2.2364173287539497</v>
+            <v>4.26542592255994</v>
+          </cell>
+          <cell r="L42">
+            <v>-6.5661119763915003</v>
           </cell>
         </row>
         <row r="43">
           <cell r="B43">
-            <v>-0.12523314331790125</v>
+            <v>-15.6939467764692</v>
+          </cell>
+          <cell r="L43">
+            <v>16.592307692307699</v>
           </cell>
         </row>
         <row r="44">
           <cell r="B44">
-            <v>-2.7597623735323848</v>
+            <v>-3.1059345535219198</v>
+          </cell>
+          <cell r="L44">
+            <v>0.16600571797472599</v>
           </cell>
         </row>
         <row r="45">
           <cell r="B45">
-            <v>0.17908077109925014</v>
+            <v>5.6915222844272</v>
+          </cell>
+          <cell r="L45">
+            <v>-6.3371824480369403</v>
           </cell>
         </row>
         <row r="46">
           <cell r="B46">
-            <v>-0.75980571074356051</v>
+            <v>3.3512876334228099</v>
+          </cell>
+          <cell r="L46">
+            <v>-4.6651029450091297</v>
           </cell>
         </row>
         <row r="47">
           <cell r="B47">
-            <v>0.73527078432923809</v>
+            <v>-0.73083372133008195</v>
+          </cell>
+          <cell r="L47">
+            <v>1.18691899070385</v>
           </cell>
         </row>
         <row r="48">
           <cell r="B48">
-            <v>-0.88633746602204</v>
+            <v>1.86150368444318</v>
+          </cell>
+          <cell r="L48">
+            <v>-3.1919361612767698</v>
           </cell>
         </row>
         <row r="49">
           <cell r="B49">
-            <v>-0.74834329745378003</v>
+            <v>-5.2141284897337297</v>
+          </cell>
+          <cell r="L49">
+            <v>4.5584045584045603</v>
           </cell>
         </row>
         <row r="50">
           <cell r="B50">
-            <v>-0.71196931493776017</v>
+            <v>-6.1872730239950799</v>
+          </cell>
+          <cell r="L50">
+            <v>6.2174840085287899</v>
           </cell>
         </row>
         <row r="51">
           <cell r="B51">
-            <v>0.18445860601025499</v>
+            <v>-0.88158148570578498</v>
+          </cell>
+          <cell r="L51">
+            <v>1.1458712259003201</v>
           </cell>
         </row>
         <row r="52">
           <cell r="B52">
-            <v>1.5989894888346541</v>
+            <v>9.9841496502484098E-2</v>
+          </cell>
+          <cell r="L52">
+            <v>1.4075436982520699</v>
           </cell>
         </row>
         <row r="53">
           <cell r="B53">
-            <v>1.4045764558842579</v>
+            <v>1.9801703253483001</v>
+          </cell>
+          <cell r="L53">
+            <v>-0.16795745077913199</v>
           </cell>
         </row>
         <row r="54">
           <cell r="B54">
-            <v>-0.74872672103191207</v>
+            <v>-0.85041021990783805</v>
+          </cell>
+          <cell r="L54">
+            <v>-3.7261294830003802E-2</v>
           </cell>
         </row>
         <row r="55">
           <cell r="B55">
-            <v>-0.380456247562866</v>
+            <v>2.0848851896237999E-2</v>
+          </cell>
+          <cell r="L55">
+            <v>-0.29797932768412499</v>
           </cell>
         </row>
         <row r="56">
           <cell r="B56">
-            <v>0.85575945530452913</v>
+            <v>9.4064712409901396</v>
+          </cell>
+          <cell r="L56">
+            <v>-10.054776715253899</v>
           </cell>
         </row>
         <row r="57">
           <cell r="B57">
-            <v>-1.9919853855941809</v>
+            <v>-2.5010373974856899</v>
+          </cell>
+          <cell r="L57">
+            <v>0.80985321410495503</v>
           </cell>
         </row>
         <row r="58">
           <cell r="B58">
-            <v>-2.3905820004647405</v>
+            <v>2.42922839919963</v>
+          </cell>
+          <cell r="L58">
+            <v>-4.3204626637183203</v>
           </cell>
         </row>
         <row r="59">
           <cell r="B59">
-            <v>-1.8599631866450306E-2</v>
+            <v>2.3207427068149298</v>
+          </cell>
+          <cell r="L59">
+            <v>-2.85341594651883</v>
           </cell>
         </row>
         <row r="60">
           <cell r="B60">
-            <v>3.5367064394395005</v>
+            <v>15.5165734821871</v>
+          </cell>
+          <cell r="L60">
+            <v>-12.000634115408999</v>
           </cell>
         </row>
         <row r="61">
           <cell r="B61">
-            <v>9.0396080353077011</v>
+            <v>34.847109337456402</v>
+          </cell>
+          <cell r="L61">
+            <v>-27.1479122434536</v>
           </cell>
         </row>
         <row r="62">
           <cell r="B62">
-            <v>-4.0143020897980701</v>
+            <v>-6.8248083431497202</v>
+          </cell>
+          <cell r="L62">
+            <v>4.5641767783591201</v>
           </cell>
         </row>
         <row r="63">
           <cell r="B63">
-            <v>-1.1538630078417502</v>
+            <v>2.8775079197465501</v>
+          </cell>
+          <cell r="L63">
+            <v>-4.6074886270850302</v>
           </cell>
         </row>
         <row r="64">
           <cell r="B64">
-            <v>-2.0712767705478008</v>
+            <v>11.317528726922999</v>
+          </cell>
+          <cell r="L64">
+            <v>-12.5055753791258</v>
           </cell>
         </row>
         <row r="65">
           <cell r="B65">
-            <v>0.7534858491255001</v>
+            <v>17.999766214172499</v>
+          </cell>
+          <cell r="L65">
+            <v>-18.137667872540799</v>
           </cell>
         </row>
         <row r="66">
           <cell r="B66">
-            <v>-6.1957130470775299</v>
+            <v>-4.2810776221431297</v>
+          </cell>
+          <cell r="L66">
+            <v>-2.7098452116280001</v>
           </cell>
         </row>
         <row r="67">
           <cell r="B67">
-            <v>-0.15727459221919915</v>
+            <v>-7.7557954240849796</v>
+          </cell>
+          <cell r="L67">
+            <v>10.5288952419849</v>
           </cell>
         </row>
         <row r="68">
           <cell r="B68">
-            <v>0.42918798657579948</v>
+            <v>-14.243261200519701</v>
+          </cell>
+          <cell r="L68">
+            <v>15.702743415346699</v>
           </cell>
         </row>
         <row r="69">
           <cell r="B69">
-            <v>1.6048564254054991</v>
+            <v>-10.189716964224701</v>
+          </cell>
+          <cell r="L69">
+            <v>16.873341636432599</v>
           </cell>
         </row>
         <row r="70">
           <cell r="B70">
-            <v>1.9490374538087201</v>
+            <v>-2.9102126733026399</v>
+          </cell>
+          <cell r="L70">
+            <v>-1.6676438017067401</v>
           </cell>
         </row>
         <row r="71">
           <cell r="B71">
-            <v>-2.5635576843756791</v>
+            <v>7.7747728689662203</v>
+          </cell>
+          <cell r="L71">
+            <v>-10.1813288908823</v>
           </cell>
         </row>
         <row r="72">
           <cell r="B72">
-            <v>9.3171341128007068E-2</v>
+            <v>1.0080745402304201</v>
+          </cell>
+          <cell r="L72">
+            <v>-1.3549662712258801</v>
           </cell>
         </row>
         <row r="73">
           <cell r="B73">
-            <v>-0.99777777916201016</v>
+            <v>3.6172944774885099</v>
+          </cell>
+          <cell r="L73">
+            <v>-4.9457800218027304</v>
           </cell>
         </row>
         <row r="74">
           <cell r="B74">
-            <v>2.5397882484913019</v>
+            <v>-18.497829313341299</v>
+          </cell>
+          <cell r="L74">
+            <v>20.622163905746</v>
           </cell>
         </row>
         <row r="75">
           <cell r="B75">
-            <v>0.89018138822355009</v>
+            <v>-1.4391295066024099</v>
+          </cell>
+          <cell r="L75">
+            <v>3.9534403195812402</v>
           </cell>
         </row>
         <row r="76">
           <cell r="B76">
-            <v>-0.93922347765530034</v>
+            <v>10.8983179207401</v>
+          </cell>
+          <cell r="L76">
+            <v>-14.413768375761901</v>
           </cell>
         </row>
         <row r="77">
           <cell r="B77">
-            <v>0.930908438665212</v>
+            <v>-0.97527939417800802</v>
+          </cell>
+          <cell r="L77">
+            <v>1.9743027264180499</v>
           </cell>
         </row>
         <row r="78">
           <cell r="B78">
-            <v>0.53748198902379207</v>
+            <v>0.94342860790031002</v>
+          </cell>
+          <cell r="L78">
+            <v>-0.98465473145780602</v>
           </cell>
         </row>
         <row r="79">
           <cell r="B79">
-            <v>-1.038503701257824</v>
+            <v>-1.5319097572028799</v>
+          </cell>
+          <cell r="L79">
+            <v>1.5069013549449299</v>
           </cell>
         </row>
         <row r="80">
           <cell r="B80">
-            <v>-4.9529359222999947E-2</v>
+            <v>1.5360969135974201</v>
+          </cell>
+          <cell r="L80">
+            <v>-2.2692208794034601</v>
           </cell>
         </row>
         <row r="81">
           <cell r="B81">
-            <v>-0.27134621607665999</v>
+            <v>3.5946366404797598</v>
+          </cell>
+          <cell r="L81">
+            <v>-4.0480231315607398</v>
           </cell>
         </row>
         <row r="82">
           <cell r="B82">
-            <v>-0.24047387983157975</v>
+            <v>-2.4794647692310399</v>
+          </cell>
+          <cell r="L82">
+            <v>1.9513079200145</v>
           </cell>
         </row>
         <row r="83">
           <cell r="B83">
-            <v>0.80701219163018001</v>
+            <v>3.3580645925758201</v>
+          </cell>
+          <cell r="L83">
+            <v>-2.1996303142329099</v>
           </cell>
         </row>
         <row r="84">
           <cell r="B84">
-            <v>1.4607147348669303</v>
+            <v>7.5070697476299602</v>
+          </cell>
+          <cell r="L84">
+            <v>-6.5472960752396396</v>
           </cell>
         </row>
         <row r="85">
           <cell r="B85">
-            <v>0.96489958776089946</v>
+            <v>-5.4771619040250004</v>
+          </cell>
+          <cell r="L85">
+            <v>7.0616194194534003</v>
           </cell>
         </row>
         <row r="86">
           <cell r="B86">
-            <v>1.01970875414586</v>
+            <v>3.3725153684133899</v>
+          </cell>
+          <cell r="L86">
+            <v>-2.8188736681887301</v>
           </cell>
         </row>
       </sheetData>
@@ -908,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14:L87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -920,7 +1193,7 @@
     <col min="2" max="11" width="13.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,78 +1224,81 @@
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>40207.000000057902</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>40235.000000057902</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>40268.000000057902</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>40298.000000057902</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>40329.000000057902</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>40359.000000057902</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>40389.000000057902</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>40421.000000057902</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>40451.000000057902</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>40480.000000057902</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>40512.000000057902</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>40543.000000057902</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>40574.000000057902</v>
       </c>
       <c r="B14">
         <f>AVERAGE([1]Sheet1!B2:B13)</f>
-        <v>-1.00813607635561</v>
+        <v>-1.8075480927776919</v>
       </c>
       <c r="C14">
         <f>AVERAGE([1]Sheet1!C2:C13)</f>
-        <v>1.86285275379798</v>
+        <v>1.0634407373758983</v>
       </c>
       <c r="D14">
         <v>-2.8116299374372069</v>
@@ -1048,14 +1324,18 @@
       <c r="K14">
         <v>1.0578235974221315</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <f>AVERAGE([1]Sheet1!L2:L13)</f>
+        <v>-0.37701306315592714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>40602.000000057902</v>
       </c>
       <c r="B15">
         <f>AVERAGE([1]Sheet1!B3:B14)</f>
-        <v>-0.78109223865832778</v>
+        <v>-0.85249909168482729</v>
       </c>
       <c r="C15">
         <v>0.79029159605289057</v>
@@ -1084,14 +1364,18 @@
       <c r="K15">
         <v>0.28371451957051663</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <f>AVERAGE([1]Sheet1!L3:L14)</f>
+        <v>-0.17323310327840713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>40633.000000057902</v>
       </c>
       <c r="B16">
         <f>AVERAGE([1]Sheet1!B4:B15)</f>
-        <v>-0.88880345264082017</v>
+        <v>-0.72014407866462482</v>
       </c>
       <c r="C16">
         <v>0.93028101214341896</v>
@@ -1120,14 +1404,18 @@
       <c r="K16">
         <v>-5.1308076371974431E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <f>AVERAGE([1]Sheet1!L4:L15)</f>
+        <v>-0.64783102089210376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>40662.000000057902</v>
       </c>
       <c r="B17">
         <f>AVERAGE([1]Sheet1!B5:B16)</f>
-        <v>-0.70973113557358614</v>
+        <v>-0.74529599430110915</v>
       </c>
       <c r="C17">
         <v>0.76101085078117725</v>
@@ -1156,14 +1444,18 @@
       <c r="K17">
         <v>0.15659850414443091</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <f>AVERAGE([1]Sheet1!L5:L16)</f>
+        <v>-0.61915894749159639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>40694.000000057902</v>
       </c>
       <c r="B18">
         <f>AVERAGE([1]Sheet1!B6:B17)</f>
-        <v>-0.48948312942504107</v>
+        <v>8.8983844169670936E-2</v>
       </c>
       <c r="C18">
         <v>0.43069534628867645</v>
@@ -1192,14 +1484,18 @@
       <c r="K18">
         <v>-0.4860123707041743</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <f>AVERAGE([1]Sheet1!L6:L17)</f>
+        <v>-0.4886616190904447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>40724.000000057902</v>
       </c>
       <c r="B19">
         <f>AVERAGE([1]Sheet1!B7:B18)</f>
-        <v>-0.33088693011595699</v>
+        <v>0.54762018832960246</v>
       </c>
       <c r="C19">
         <v>8.1928565115962068E-2</v>
@@ -1228,14 +1524,18 @@
       <c r="K19">
         <v>-0.7830827279801178</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <f>AVERAGE([1]Sheet1!L7:L18)</f>
+        <v>-0.81889278312272784</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>40753.000000057902</v>
       </c>
       <c r="B20">
         <f>AVERAGE([1]Sheet1!B8:B19)</f>
-        <v>-0.705227698605983</v>
+        <v>0.92297373308816433</v>
       </c>
       <c r="C20">
         <v>0.4786288752095389</v>
@@ -1264,14 +1564,18 @@
       <c r="K20">
         <v>-1.6046444915080462</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <f>AVERAGE([1]Sheet1!L8:L19)</f>
+        <v>-1.5631157394235837</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>40786.000000057902</v>
       </c>
       <c r="B21">
         <f>AVERAGE([1]Sheet1!B9:B20)</f>
-        <v>-0.62214762472401786</v>
+        <v>-0.18524922583665093</v>
       </c>
       <c r="C21">
         <v>0.56139116034245895</v>
@@ -1300,14 +1604,18 @@
       <c r="K21">
         <v>-0.53831439105662027</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <f>AVERAGE([1]Sheet1!L9:L20)</f>
+        <v>-0.44422491357317773</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>40816.000000057902</v>
       </c>
       <c r="B22">
         <f>AVERAGE([1]Sheet1!B10:B21)</f>
-        <v>-0.19859676462410122</v>
+        <v>-0.21278767578245095</v>
       </c>
       <c r="C22">
         <v>-0.13529781294268703</v>
@@ -1336,14 +1644,18 @@
       <c r="K22">
         <v>-0.1358285434036508</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <f>AVERAGE([1]Sheet1!L10:L21)</f>
+        <v>1.8940101106946289E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>40847.000000057902</v>
       </c>
       <c r="B23">
         <f>AVERAGE([1]Sheet1!B11:B22)</f>
-        <v>7.4642854408407304E-3</v>
+        <v>-0.87666307873310723</v>
       </c>
       <c r="C23">
         <v>-0.47394118912182698</v>
@@ -1372,14 +1684,18 @@
       <c r="K23">
         <v>0.80987757772770441</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <f>AVERAGE([1]Sheet1!L11:L22)</f>
+        <v>0.94705920369316299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>40877.000000057902</v>
       </c>
       <c r="B24">
         <f>AVERAGE([1]Sheet1!B12:B23)</f>
-        <v>0.22937838410171149</v>
+        <v>-1.5484285907282265</v>
       </c>
       <c r="C24">
         <v>2.1634893207377104E-2</v>
@@ -1408,14 +1724,18 @@
       <c r="K24">
         <v>1.926595640503977</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <f>AVERAGE([1]Sheet1!L12:L23)</f>
+        <v>1.8683076370244962</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>40907.000000057902</v>
       </c>
       <c r="B25">
         <f>AVERAGE([1]Sheet1!B13:B24)</f>
-        <v>0.36400991568364072</v>
+        <v>-1.3520001109988229</v>
       </c>
       <c r="C25">
         <v>-0.50530515789755792</v>
@@ -1444,14 +1764,18 @@
       <c r="K25">
         <v>2.1478947811700944</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <f>AVERAGE([1]Sheet1!L13:L24)</f>
+        <v>1.7311163507598994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>40939.000000057902</v>
       </c>
       <c r="B26">
         <f>AVERAGE([1]Sheet1!B14:B25)</f>
-        <v>0.70618168395611958</v>
+        <v>-1.5675792791255512</v>
       </c>
       <c r="C26">
         <v>-0.87033882772224702</v>
@@ -1480,14 +1804,18 @@
       <c r="K26">
         <v>2.7544043790523625</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <f>AVERAGE([1]Sheet1!L14:L25)</f>
+        <v>2.3048457675575698</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>40968.000000057902</v>
       </c>
       <c r="B27">
         <f>AVERAGE([1]Sheet1!B15:B26)</f>
-        <v>0.85790608939923141</v>
+        <v>-0.85695125421010099</v>
       </c>
       <c r="C27">
         <v>-0.80847778454343777</v>
@@ -1516,14 +1844,18 @@
       <c r="K27">
         <v>2.2636763476662596</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <f>AVERAGE([1]Sheet1!L15:L26)</f>
+        <v>1.6803332380293641</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>40998.000000057902</v>
       </c>
       <c r="B28">
         <f>AVERAGE([1]Sheet1!B16:B27)</f>
-        <v>0.85292637548482653</v>
+        <v>-0.72909743630433399</v>
       </c>
       <c r="C28">
         <v>-0.80072390295361773</v>
@@ -1552,14 +1884,18 @@
       <c r="K28">
         <v>2.1096033523751907</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <f>AVERAGE([1]Sheet1!L16:L27)</f>
+        <v>1.5666166699133892</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>41026.000000057902</v>
       </c>
       <c r="B29">
         <f>AVERAGE([1]Sheet1!B17:B28)</f>
-        <v>0.58747727555737905</v>
+        <v>-1.5197450565646371</v>
       </c>
       <c r="C29">
         <v>-0.75015118380509183</v>
@@ -1588,14 +1924,18 @@
       <c r="K29">
         <v>2.6075584272951873</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <f>AVERAGE([1]Sheet1!L17:L28)</f>
+        <v>2.1578832313904037</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>41060.000000057902</v>
       </c>
       <c r="B30">
         <f>AVERAGE([1]Sheet1!B18:B29)</f>
-        <v>0.37783090704115746</v>
+        <v>-1.069022402381604</v>
       </c>
       <c r="C30">
         <v>-0.53366926487889998</v>
@@ -1624,14 +1964,18 @@
       <c r="K30">
         <v>1.9219145477176023</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <f>AVERAGE([1]Sheet1!L18:L29)</f>
+        <v>1.3990574604286603</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>41089.000000057902</v>
       </c>
       <c r="B31">
         <f>AVERAGE([1]Sheet1!B19:B30)</f>
-        <v>0.18538012548649499</v>
+        <v>-0.74383346748853663</v>
       </c>
       <c r="C31">
         <v>-0.17264166653920673</v>
@@ -1660,14 +2004,18 @@
       <c r="K31">
         <v>1.481881519547593</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <f>AVERAGE([1]Sheet1!L19:L30)</f>
+        <v>0.89389691526364112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>41121.000000057902</v>
       </c>
       <c r="B32">
         <f>AVERAGE([1]Sheet1!B20:B31)</f>
-        <v>0.48855060802185246</v>
+        <v>-1.0983490118912405</v>
       </c>
       <c r="C32">
         <v>-0.3956562682750559</v>
@@ -1696,14 +2044,18 @@
       <c r="K32">
         <v>2.2127302631911188</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <f>AVERAGE([1]Sheet1!L20:L31)</f>
+        <v>1.5291366605661081</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>41152.000000057902</v>
       </c>
       <c r="B33">
         <f>AVERAGE([1]Sheet1!B21:B32)</f>
-        <v>0.69193691951883096</v>
+        <v>-1.1334882763968135</v>
       </c>
       <c r="C33">
         <v>-0.99480383643772496</v>
@@ -1732,14 +2084,18 @@
       <c r="K33">
         <v>2.5604678180707365</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <f>AVERAGE([1]Sheet1!L21:L32)</f>
+        <v>1.7121511250436974</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>41180.000000057902</v>
       </c>
       <c r="B34">
         <f>AVERAGE([1]Sheet1!B22:B33)</f>
-        <v>0.67716209101242431</v>
+        <v>-1.2543457030370959</v>
       </c>
       <c r="C34">
         <v>-0.58455656392162048</v>
@@ -1768,14 +2124,18 @@
       <c r="K34">
         <v>2.6300346244034452</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <f>AVERAGE([1]Sheet1!L22:L33)</f>
+        <v>1.8812415035031489</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>41213.000000057902</v>
       </c>
       <c r="B35">
         <f>AVERAGE([1]Sheet1!B23:B34)</f>
-        <v>0.60983715959564089</v>
+        <v>-0.21119829603721818</v>
       </c>
       <c r="C35">
         <v>-0.45601633154688209</v>
@@ -1804,14 +2164,18 @@
       <c r="K35">
         <v>1.4298664004438295</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <f>AVERAGE([1]Sheet1!L23:L34)</f>
+        <v>0.70169534303281222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>41243.000000057902</v>
       </c>
       <c r="B36">
         <f>AVERAGE([1]Sheet1!B24:B35)</f>
-        <v>0.45025190614352079</v>
+        <v>-0.87780027738932809</v>
       </c>
       <c r="C36">
         <v>-0.33940985523298667</v>
@@ -1840,14 +2204,18 @@
       <c r="K36">
         <v>1.8160260951051346</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <f>AVERAGE([1]Sheet1!L24:L35)</f>
+        <v>1.3143748819590122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>41274.000000057902</v>
       </c>
       <c r="B37">
         <f>AVERAGE([1]Sheet1!B25:B36)</f>
-        <v>0.73350105322615666</v>
+        <v>-0.48284064854975811</v>
       </c>
       <c r="C37">
         <v>-1.0017804012261251</v>
@@ -1876,14 +2244,18 @@
       <c r="K37">
         <v>1.6079640199506011</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <f>AVERAGE([1]Sheet1!L25:L36)</f>
+        <v>1.2330638306327535</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>41305.000000057902</v>
       </c>
       <c r="B38">
         <f>AVERAGE([1]Sheet1!B26:B37)</f>
-        <v>0.55463366645001499</v>
+        <v>1.4120206959202954</v>
       </c>
       <c r="C38">
         <v>-0.5100495447274036</v>
@@ -1912,14 +2284,18 @@
       <c r="K38">
         <v>-0.56714045142605585</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <f>AVERAGE([1]Sheet1!L26:L37)</f>
+        <v>-0.88786193546706382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>41333.000000057902</v>
       </c>
       <c r="B39">
         <f>AVERAGE([1]Sheet1!B27:B38)</f>
-        <v>0.38762526873873493</v>
+        <v>1.3654350912190185</v>
       </c>
       <c r="C39">
         <v>-0.18279876849832291</v>
@@ -1948,14 +2324,18 @@
       <c r="K39">
         <v>-0.70717290903652297</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <f>AVERAGE([1]Sheet1!L27:L38)</f>
+        <v>-0.99838757437955206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>41362.000000057902</v>
       </c>
       <c r="B40">
         <f>AVERAGE([1]Sheet1!B28:B39)</f>
-        <v>0.47810038544342737</v>
+        <v>0.83937996321887243</v>
       </c>
       <c r="C40">
         <v>-0.27434249080941475</v>
@@ -1984,14 +2364,18 @@
       <c r="K40">
         <v>-8.4803941122223447E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <f>AVERAGE([1]Sheet1!L28:L39)</f>
+        <v>-0.34401881302452481</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>41390.000000057902</v>
       </c>
       <c r="B41">
         <f>AVERAGE([1]Sheet1!B29:B40)</f>
-        <v>0.30620978320770392</v>
+        <v>0.67891810036427602</v>
       </c>
       <c r="C41">
         <v>-2.7727672787252262E-2</v>
@@ -2020,14 +2404,18 @@
       <c r="K41">
         <v>-1.9861599382174244E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <f>AVERAGE([1]Sheet1!L29:L40)</f>
+        <v>-0.35849647617763436</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41425.000000057902</v>
       </c>
       <c r="B42">
         <f>AVERAGE([1]Sheet1!B30:B41)</f>
-        <v>0.34973331943760821</v>
+        <v>-1.8476619226127533E-2</v>
       </c>
       <c r="C42">
         <v>-8.3348423506348954E-2</v>
@@ -2056,14 +2444,18 @@
       <c r="K42">
         <v>0.77978776269336303</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <f>AVERAGE([1]Sheet1!L30:L41)</f>
+        <v>0.41745523180958849</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>41453.000000057902</v>
       </c>
       <c r="B43">
         <f>AVERAGE([1]Sheet1!B31:B42)</f>
-        <v>0.26410895674442075</v>
+        <v>0.41904498026486836</v>
       </c>
       <c r="C43">
         <v>0.36275158893091947</v>
@@ -2092,14 +2484,18 @@
       <c r="K43">
         <v>0.14806257171677237</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <f>AVERAGE([1]Sheet1!L31:L42)</f>
+        <v>-0.13919548766622616</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>41486.000000057902</v>
       </c>
       <c r="B44">
         <f>AVERAGE([1]Sheet1!B32:B43)</f>
-        <v>0.15617157266756063</v>
+        <v>-0.44668515459974573</v>
       </c>
       <c r="C44">
         <v>0.43496698886242863</v>
@@ -2128,14 +2524,18 @@
       <c r="K44">
         <v>0.83705567711251483</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <f>AVERAGE([1]Sheet1!L32:L43)</f>
+        <v>0.71673504535111832</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>41516.000000057902</v>
       </c>
       <c r="B45">
         <f>AVERAGE([1]Sheet1!B33:B44)</f>
-        <v>-0.1341114278932182</v>
+        <v>-0.33015958122362149</v>
       </c>
       <c r="C45">
         <v>1.2782460445826407</v>
@@ -2164,14 +2564,18 @@
       <c r="K45">
         <v>0.35194426727630607</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <f>AVERAGE([1]Sheet1!L33:L44)</f>
+        <v>0.37347421497713396</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>41547.000000057902</v>
       </c>
       <c r="B46">
         <f>AVERAGE([1]Sheet1!B34:B45)</f>
-        <v>-0.16457575517223902</v>
+        <v>0.55616256786176477</v>
       </c>
       <c r="C46">
         <v>0.98034796058762941</v>
@@ -2200,14 +2604,18 @@
       <c r="K46">
         <v>-0.58756585884085</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L46">
+        <f>AVERAGE([1]Sheet1!L34:L45)</f>
+        <v>-0.67369450967591027</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>41578.000000057902</v>
       </c>
       <c r="B47">
         <f>AVERAGE([1]Sheet1!B35:B46)</f>
-        <v>-0.22689684597212725</v>
+        <v>0.50293567830073427</v>
       </c>
       <c r="C47">
         <v>1.2860703964764146</v>
@@ -2236,14 +2644,18 @@
       <c r="K47">
         <v>-0.57578527644634581</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L47">
+        <f>AVERAGE([1]Sheet1!L35:L46)</f>
+        <v>-0.68790435196457755</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>41607.000000057902</v>
       </c>
       <c r="B48">
         <f>AVERAGE([1]Sheet1!B36:B47)</f>
-        <v>-0.17023445697007497</v>
+        <v>0.57655712347105625</v>
       </c>
       <c r="C48">
         <v>1.0092934063713372</v>
@@ -2272,14 +2684,18 @@
       <c r="K48">
         <v>-0.66054513993796526</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L48">
+        <f>AVERAGE([1]Sheet1!L36:L47)</f>
+        <v>-0.80636070543402349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>41639.000000057902</v>
       </c>
       <c r="B49">
         <f>AVERAGE([1]Sheet1!B37:B48)</f>
-        <v>-0.4633782990486533</v>
+        <v>0.93800312237357664</v>
       </c>
       <c r="C49">
         <v>1.8010348585873457</v>
@@ -2308,14 +2724,18 @@
       <c r="K49">
         <v>-1.4472453244940011</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L49">
+        <f>AVERAGE([1]Sheet1!L37:L48)</f>
+        <v>-1.5039505138365061</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>41669.000000057902</v>
       </c>
       <c r="B50">
         <f>AVERAGE([1]Sheet1!B38:B49)</f>
-        <v>-0.70159205134713487</v>
+        <v>-1.1651620720107843</v>
       </c>
       <c r="C50">
         <v>2.0596116118862668</v>
@@ -2344,14 +2764,18 @@
       <c r="K50">
         <v>0.37593210869090682</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L50">
+        <f>AVERAGE([1]Sheet1!L38:L49)</f>
+        <v>0.43315558993626563</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>41698.000000057902</v>
       </c>
       <c r="B51">
         <f>AVERAGE([1]Sheet1!B39:B50)</f>
-        <v>-0.82762054997800438</v>
+        <v>-2.288928156195321</v>
       </c>
       <c r="C51">
         <v>2.6615365091813459</v>
@@ -2380,14 +2804,18 @@
       <c r="K51">
         <v>1.4054394393856509</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L51">
+        <f>AVERAGE([1]Sheet1!L39:L50)</f>
+        <v>1.4825374658768391</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>41729.000000057902</v>
       </c>
       <c r="B52">
         <f>AVERAGE([1]Sheet1!B40:B51)</f>
-        <v>-0.70108108217137366</v>
+        <v>-2.2091846875465175</v>
       </c>
       <c r="C52">
         <v>2.5945734720791149</v>
@@ -2416,14 +2844,18 @@
       <c r="K52">
         <v>1.5480762836196327</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L52">
+        <f>AVERAGE([1]Sheet1!L40:L51)</f>
+        <v>1.5119724590765102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>41759.000000057902</v>
       </c>
       <c r="B53">
         <f>AVERAGE([1]Sheet1!B41:B52)</f>
-        <v>-0.42747261545751325</v>
+        <v>-1.5048804624791583</v>
       </c>
       <c r="C53">
         <v>2.2517409697099793</v>
@@ -2452,14 +2884,18 @@
       <c r="K53">
         <v>1.0924323490649757</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L53">
+        <f>AVERAGE([1]Sheet1!L41:L52)</f>
+        <v>1.0238067955397703</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>41789.000000057902</v>
       </c>
       <c r="B54">
         <f>AVERAGE([1]Sheet1!B42:B53)</f>
-        <v>-0.34379104405031008</v>
+        <v>-1.2136622253376566</v>
       </c>
       <c r="C54">
         <v>2.0750684316656032</v>
@@ -2488,14 +2924,18 @@
       <c r="K54">
         <v>0.89345542930349664</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L54">
+        <f>AVERAGE([1]Sheet1!L42:L53)</f>
+        <v>0.86218707588154508</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>41820.000000057902</v>
       </c>
       <c r="B55">
         <f>AVERAGE([1]Sheet1!B43:B54)</f>
-        <v>-0.21981682674014028</v>
+        <v>-1.6399819038766381</v>
       </c>
       <c r="C55">
         <v>1.5933833552378072</v>
@@ -2524,14 +2964,18 @@
       <c r="K55">
         <v>1.4986381433086156</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L55">
+        <f>AVERAGE([1]Sheet1!L43:L54)</f>
+        <v>1.4062579660116699</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>41851.000000057902</v>
       </c>
       <c r="B56">
         <f>AVERAGE([1]Sheet1!B44:B55)</f>
-        <v>-0.241085418760554</v>
+        <v>-0.33041560151285188</v>
       </c>
       <c r="C56">
         <v>1.7837766530387469</v>
@@ -2560,14 +3004,18 @@
       <c r="K56">
         <v>0.2650252975109722</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L56">
+        <f>AVERAGE([1]Sheet1!L44:L55)</f>
+        <v>-1.2659523209821028E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>41880.000000057902</v>
       </c>
       <c r="B57">
         <f>AVERAGE([1]Sheet1!B45:B56)</f>
-        <v>6.0208066975855477E-2</v>
+        <v>0.71228488136315304</v>
       </c>
       <c r="C57">
         <v>1.2460103939194107</v>
@@ -2596,14 +3044,18 @@
       <c r="K57">
         <v>-0.45409586866936502</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L57">
+        <f>AVERAGE([1]Sheet1!L45:L56)</f>
+        <v>-0.85299782175670069</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>41912.000000057902</v>
       </c>
       <c r="B58">
         <f>AVERAGE([1]Sheet1!B46:B57)</f>
-        <v>-0.12071411274859711</v>
+        <v>2.9571574537078964E-2</v>
       </c>
       <c r="C58">
         <v>1.5152710767878546</v>
@@ -2632,14 +3084,18 @@
       <c r="K58">
         <v>0.18337110459500586</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L58">
+        <f>AVERAGE([1]Sheet1!L46:L57)</f>
+        <v>-0.25741151657820949</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>41943.000000057902</v>
       </c>
       <c r="B59">
         <f>AVERAGE([1]Sheet1!B47:B58)</f>
-        <v>-0.25661213689202877</v>
+        <v>-4.7266694981519253E-2</v>
       </c>
       <c r="C59">
         <v>1.9003396132132464</v>
@@ -2668,14 +3124,18 @@
       <c r="K59">
         <v>0.1897616677591959</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L59">
+        <f>AVERAGE([1]Sheet1!L47:L58)</f>
+        <v>-0.22869149313730872</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>41971.000000057902</v>
       </c>
       <c r="B60">
         <f>AVERAGE([1]Sheet1!B48:B59)</f>
-        <v>-0.31943467157500277</v>
+        <v>0.20703134069723175</v>
       </c>
       <c r="C60">
         <v>2.0446389927419912</v>
@@ -2704,14 +3164,18 @@
       <c r="K60">
         <v>6.8352864645831138E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L60">
+        <f>AVERAGE([1]Sheet1!L48:L59)</f>
+        <v>-0.56538607123919871</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>42004.000000057902</v>
       </c>
       <c r="B61">
         <f>AVERAGE([1]Sheet1!B49:B60)</f>
-        <v>4.9152320546792229E-2</v>
+        <v>1.3449538238425582</v>
       </c>
       <c r="C61">
         <v>1.1860771723416186</v>
@@ -2740,14 +3204,18 @@
       <c r="K61">
         <v>-0.44013148599953311</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L61">
+        <f>AVERAGE([1]Sheet1!L49:L60)</f>
+        <v>-1.2994442340835513</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>42034.000000057902</v>
       </c>
       <c r="B62">
         <f>AVERAGE([1]Sheet1!B50:B61)</f>
-        <v>0.86481493161024903</v>
+        <v>4.6833903094417364</v>
       </c>
       <c r="C62">
         <v>-0.96598631360634801</v>
@@ -2776,14 +3244,18 @@
       <c r="K62">
         <v>-2.9566413798395685</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L62">
+        <f>AVERAGE([1]Sheet1!L50:L61)</f>
+        <v>-3.9416373009050645</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>42062.000000057902</v>
       </c>
       <c r="B63">
         <f>AVERAGE([1]Sheet1!B51:B62)</f>
-        <v>0.58962053370522316</v>
+        <v>4.6302623661788491</v>
       </c>
       <c r="C63">
         <v>-0.82525974497986443</v>
@@ -2812,14 +3284,18 @@
       <c r="K63">
         <v>-3.161452812159729</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L63">
+        <f>AVERAGE([1]Sheet1!L51:L62)</f>
+        <v>-4.079412903419203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>42094.000000057902</v>
       </c>
       <c r="B64">
         <f>AVERAGE([1]Sheet1!B52:B63)</f>
-        <v>0.47809373255088944</v>
+        <v>4.9435198166332102</v>
       </c>
       <c r="C64">
         <v>-0.87349856102424461</v>
@@ -2848,14 +3324,18 @@
       <c r="K64">
         <v>-3.6609028057990987</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L64">
+        <f>AVERAGE([1]Sheet1!L52:L63)</f>
+        <v>-4.5588595578346496</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>42124.000000057902</v>
       </c>
       <c r="B65">
         <f>AVERAGE([1]Sheet1!B53:B64)</f>
-        <v>0.17223821093568489</v>
+        <v>5.8783270858349193</v>
       </c>
       <c r="C65">
         <v>-0.12086621340565203</v>
@@ -2884,14 +3364,18 @@
       <c r="K65">
         <v>-4.9855472091227879</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L65">
+        <f>AVERAGE([1]Sheet1!L53:L64)</f>
+        <v>-5.718286147616138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>42153.000000057902</v>
       </c>
       <c r="B66">
         <f>AVERAGE([1]Sheet1!B54:B65)</f>
-        <v>0.11798066037245496</v>
+        <v>7.2132934099036028</v>
       </c>
       <c r="C66">
         <v>4.9028676859358633E-2</v>
@@ -2920,14 +3404,18 @@
       <c r="K66">
         <v>-6.337315305313358</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L66">
+        <f>AVERAGE([1]Sheet1!L54:L65)</f>
+        <v>-7.2157620160962779</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>42185.000000057902</v>
       </c>
       <c r="B67">
         <f>AVERAGE([1]Sheet1!B55:B66)</f>
-        <v>-0.33593486679801315</v>
+        <v>6.9274044597173292</v>
       </c>
       <c r="C67">
         <v>1.2145241575064372</v>
@@ -2956,14 +3444,18 @@
       <c r="K67">
         <v>-6.572498227758139</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L67">
+        <f>AVERAGE([1]Sheet1!L55:L66)</f>
+        <v>-7.4384773424961113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>42216.000000057902</v>
       </c>
       <c r="B68">
         <f>AVERAGE([1]Sheet1!B56:B67)</f>
-        <v>-0.31733639551937431</v>
+        <v>6.2793507700522264</v>
       </c>
       <c r="C68">
         <v>0.78602512086868714</v>
@@ -2992,14 +3484,18 @@
       <c r="K68">
         <v>-5.9356509256919017</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L68">
+        <f>AVERAGE([1]Sheet1!L56:L67)</f>
+        <v>-6.5362377950236938</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>42247.000000057902</v>
       </c>
       <c r="B69">
         <f>AVERAGE([1]Sheet1!B57:B68)</f>
-        <v>-0.35288401791343516</v>
+        <v>4.3085397332597415</v>
       </c>
       <c r="C69">
         <v>0.9129380239826772</v>
@@ -3028,14 +3524,18 @@
       <c r="K69">
         <v>-3.8810650661758843</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L69">
+        <f>AVERAGE([1]Sheet1!L57:L68)</f>
+        <v>-4.3897777841403078</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>42277.000000057902</v>
       </c>
       <c r="B70">
         <f>AVERAGE([1]Sheet1!B58:B69)</f>
-        <v>-5.3147200330128319E-2</v>
+        <v>3.6678164360314902</v>
       </c>
       <c r="C70">
         <v>0.28333926748041244</v>
@@ -3064,14 +3564,18 @@
       <c r="K70">
         <v>-2.9428877947224752</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L70">
+        <f>AVERAGE([1]Sheet1!L58:L69)</f>
+        <v>-3.0511537489463394</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>42307.000000057902</v>
       </c>
       <c r="B71">
         <f>AVERAGE([1]Sheet1!B59:B70)</f>
-        <v>0.30848775419266</v>
+        <v>3.2228630133229679</v>
       </c>
       <c r="C71">
         <v>-0.40834694346169775</v>
@@ -3100,14 +3604,18 @@
       <c r="K71">
         <v>-2.1706371557065922</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L71">
+        <f>AVERAGE([1]Sheet1!L59:L70)</f>
+        <v>-2.8300855104453735</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>42338.000000057902</v>
       </c>
       <c r="B72">
         <f>AVERAGE([1]Sheet1!B60:B71)</f>
-        <v>9.6407916483557621E-2</v>
+        <v>3.677365526835576</v>
       </c>
       <c r="C72">
         <v>0.11399563477322776</v>
@@ -3136,14 +3644,18 @@
       <c r="K72">
         <v>-2.8817578047877599</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L72">
+        <f>AVERAGE([1]Sheet1!L60:L71)</f>
+        <v>-3.440744922475663</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>42369.000000057902</v>
       </c>
       <c r="B73">
         <f>AVERAGE([1]Sheet1!B61:B72)</f>
-        <v>-0.19055334170906688</v>
+        <v>2.4683239483391861</v>
       </c>
       <c r="C73">
         <v>0.98389818548865982</v>
@@ -3172,14 +3684,18 @@
       <c r="K73">
         <v>-2.1060396650227049</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L73">
+        <f>AVERAGE([1]Sheet1!L61:L72)</f>
+        <v>-2.553605935460403</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>42398.000000057902</v>
       </c>
       <c r="B74">
         <f>AVERAGE([1]Sheet1!B62:B73)</f>
-        <v>-1.0270021595815428</v>
+        <v>-0.13416062332480616</v>
       </c>
       <c r="C74">
         <v>2.8623112342125707</v>
@@ -3208,14 +3724,18 @@
       <c r="K74">
         <v>-0.19038254024532864</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L74">
+        <f>AVERAGE([1]Sheet1!L62:L73)</f>
+        <v>-0.7034282503228303</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>42429.000000057902</v>
       </c>
       <c r="B75">
         <f>AVERAGE([1]Sheet1!B63:B74)</f>
-        <v>-0.48082796472409522</v>
+        <v>-1.1069123708407711</v>
       </c>
       <c r="C75">
         <v>1.5454633228242305</v>
@@ -3244,14 +3764,18 @@
       <c r="K75">
         <v>1.2558518046998841</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L75">
+        <f>AVERAGE([1]Sheet1!L63:L74)</f>
+        <v>0.63473734362607637</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>42460.000000057902</v>
       </c>
       <c r="B76">
         <f>AVERAGE([1]Sheet1!B64:B75)</f>
-        <v>-0.31049093171865344</v>
+        <v>-1.466632156369851</v>
       </c>
       <c r="C76">
         <v>1.323993785363226</v>
@@ -3280,14 +3804,18 @@
       <c r="K76">
         <v>1.7494952942815329</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L76">
+        <f>AVERAGE([1]Sheet1!L64:L75)</f>
+        <v>1.3481480891815991</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>42489.000000057902</v>
       </c>
       <c r="B77">
         <f>AVERAGE([1]Sheet1!B65:B76)</f>
-        <v>-0.21615315731094506</v>
+        <v>-1.5015663902184258</v>
       </c>
       <c r="C77">
         <v>0.99813155075882587</v>
@@ -3316,14 +3844,18 @@
       <c r="K77">
         <v>2.0130262365957692</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L77">
+        <f>AVERAGE([1]Sheet1!L65:L76)</f>
+        <v>1.1891320061285906</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>42521.000000057902</v>
       </c>
       <c r="B78">
         <f>AVERAGE([1]Sheet1!B66:B77)</f>
-        <v>-0.20136794151596904</v>
+        <v>-3.0828201909143016</v>
       </c>
       <c r="C78">
         <v>0.96598152734758902</v>
@@ -3352,14 +3884,18 @@
       <c r="K78">
         <v>3.4342113480641348</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L78">
+        <f>AVERAGE([1]Sheet1!L66:L77)</f>
+        <v>2.8651295560418286</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>42551.000000057902</v>
       </c>
       <c r="B79">
         <f>AVERAGE([1]Sheet1!B67:B78)</f>
-        <v>0.35973164482580783</v>
+        <v>-2.6474446717440152</v>
       </c>
       <c r="C79">
         <v>-0.43464876964221349</v>
@@ -3388,14 +3924,18 @@
       <c r="K79">
         <v>3.5582653569721203</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L79">
+        <f>AVERAGE([1]Sheet1!L67:L78)</f>
+        <v>3.0088954293893448</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>42580.000000057902</v>
       </c>
       <c r="B80">
         <f>AVERAGE([1]Sheet1!B68:B79)</f>
-        <v>0.28629588573925574</v>
+        <v>-2.1287875328371735</v>
       </c>
       <c r="C80">
         <v>0.1070696016240386</v>
@@ -3424,14 +3964,18 @@
       <c r="K80">
         <v>2.9903336909898037</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L80">
+        <f>AVERAGE([1]Sheet1!L68:L79)</f>
+        <v>2.2570626054693474</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>42613.000000057902</v>
       </c>
       <c r="B81">
         <f>AVERAGE([1]Sheet1!B69:B80)</f>
-        <v>0.24640277358935581</v>
+        <v>-0.81384102332741304</v>
       </c>
       <c r="C81">
         <v>-3.6570046811209754E-2</v>
@@ -3460,14 +4004,18 @@
       <c r="K81">
         <v>1.6155961680541813</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L81">
+        <f>AVERAGE([1]Sheet1!L69:L80)</f>
+        <v>0.75939891424016681</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>42643.000000057902</v>
       </c>
       <c r="B82">
         <f>AVERAGE([1]Sheet1!B70:B81)</f>
-        <v>9.0052553465842455E-2</v>
+        <v>0.33485511039795862</v>
       </c>
       <c r="C82">
         <v>0.20479450189665607</v>
@@ -3496,14 +4044,18 @@
       <c r="K82">
         <v>0.30130829257090624</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L82">
+        <f>AVERAGE([1]Sheet1!L70:L81)</f>
+        <v>-0.98404814975927801</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>42674.000000057902</v>
       </c>
       <c r="B83">
         <f>AVERAGE([1]Sheet1!B71:B82)</f>
-        <v>-9.2406724337515844E-2</v>
+        <v>0.37075076907059207</v>
       </c>
       <c r="C83">
         <v>0.42839080872674784</v>
@@ -3532,14 +4084,18 @@
       <c r="K83">
         <v>8.1878459939580497E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L83">
+        <f>AVERAGE([1]Sheet1!L71:L82)</f>
+        <v>-0.68246883961584148</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>42704.000000057902</v>
       </c>
       <c r="B84">
         <f>AVERAGE([1]Sheet1!B72:B83)</f>
-        <v>0.18847409866297249</v>
+        <v>2.6917460380586253E-3</v>
       </c>
       <c r="C84">
         <v>-6.7303518804595508E-2</v>
@@ -3568,14 +4124,18 @@
       <c r="K84">
         <v>0.6786409021025559</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L84">
+        <f>AVERAGE([1]Sheet1!L72:L83)</f>
+        <v>-1.7327291561725595E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>42734.000000057902</v>
       </c>
       <c r="B85">
         <f>AVERAGE([1]Sheet1!B73:B84)</f>
-        <v>0.30243604814121605</v>
+        <v>0.54427467998802037</v>
       </c>
       <c r="C85">
         <v>-0.70308425915166517</v>
@@ -3604,14 +4164,18 @@
       <c r="K85">
         <v>0.18507220656908538</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L85">
+        <f>AVERAGE([1]Sheet1!L73:L84)</f>
+        <v>-0.45002144189620558</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>42761.000000057902</v>
       </c>
       <c r="B86">
         <f>AVERAGE([1]Sheet1!B74:B85)</f>
-        <v>0.46599249538479187</v>
+        <v>-0.21359668513810556</v>
       </c>
       <c r="C86">
         <v>-0.42447170928765271</v>
@@ -3640,14 +4204,18 @@
       <c r="K86">
         <v>0.84754102661704367</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L86">
+        <f>AVERAGE([1]Sheet1!L74:L85)</f>
+        <v>0.55059517820847204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>42794.000000057902</v>
       </c>
       <c r="B87">
         <f>AVERAGE([1]Sheet1!B75:B86)</f>
-        <v>0.33931920418933831</v>
+        <v>1.6089320383414518</v>
       </c>
       <c r="C87">
         <v>-7.6373378823173632E-2</v>
@@ -3675,6 +4243,10 @@
       </c>
       <c r="K87">
         <v>-1.1387719874033324</v>
+      </c>
+      <c r="L87">
+        <f>AVERAGE([1]Sheet1!L75:L86)</f>
+        <v>-1.4028246196194221</v>
       </c>
     </row>
   </sheetData>
